--- a/uploadFile/excels/广西外资企业和外贸企业复工情况表.xlsx
+++ b/uploadFile/excels/广西外资企业和外贸企业复工情况表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>地区</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>比上日新增复工企业数（家）</t>
-  </si>
-  <si>
-    <t>统计企业数(家)</t>
   </si>
   <si>
     <t>全区</t>
@@ -90,8 +87,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -124,14 +121,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,20 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -167,9 +181,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,40 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,44 +263,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -282,43 +279,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,37 +411,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,90 +454,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,8 +533,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,11 +563,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,187 +627,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,9 +800,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1130,7 +1124,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1167,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1179,20 +1173,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="45.75" spans="1:9">
+    <row r="3" ht="18.35" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" ht="18.35" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5">
         <v>1761</v>
@@ -1221,7 +1215,7 @@
     </row>
     <row r="5" ht="18.35" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5">
         <v>480</v>
@@ -1250,7 +1244,7 @@
     </row>
     <row r="6" ht="18.35" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5">
         <v>93</v>
@@ -1279,7 +1273,7 @@
     </row>
     <row r="7" ht="18.35" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5">
         <v>208</v>
@@ -1308,7 +1302,7 @@
     </row>
     <row r="8" ht="18.35" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5">
         <v>162</v>
@@ -1337,7 +1331,7 @@
     </row>
     <row r="9" ht="18.35" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>137</v>
@@ -1366,7 +1360,7 @@
     </row>
     <row r="10" ht="26.75" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5">
         <v>120</v>
@@ -1395,7 +1389,7 @@
     </row>
     <row r="11" ht="18.35" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5">
         <v>139</v>
@@ -1424,7 +1418,7 @@
     </row>
     <row r="12" ht="18.35" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5">
         <v>64</v>
@@ -1453,7 +1447,7 @@
     </row>
     <row r="13" ht="18.35" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5">
         <v>128</v>
@@ -1482,7 +1476,7 @@
     </row>
     <row r="14" ht="18.35" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5">
         <v>45</v>
@@ -1511,7 +1505,7 @@
     </row>
     <row r="15" ht="18.35" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5">
         <v>50</v>
@@ -1540,7 +1534,7 @@
     </row>
     <row r="16" ht="18.35" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5">
         <v>41</v>
@@ -1569,7 +1563,7 @@
     </row>
     <row r="17" ht="18.35" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5">
         <v>34</v>
@@ -1598,7 +1592,7 @@
     </row>
     <row r="18" ht="18.35" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5">
         <v>60</v>
